--- a/trunk/yaol-p-xml/queries/dblp frequent word.xlsx
+++ b/trunk/yaol-p-xml/queries/dblp frequent word.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1671">
   <si>
     <t>conf</t>
   </si>
@@ -5026,6 +5026,9 @@
   </si>
   <si>
     <t>L_k5</t>
+  </si>
+  <si>
+    <t>k6</t>
   </si>
 </sst>
 </file>
@@ -21404,24 +21407,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1660</v>
       </c>
@@ -21437,23 +21441,26 @@
       <c r="F1" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2</f>
         <v>performance,learning,research,machine,mining</v>
@@ -21473,35 +21480,35 @@
       <c r="F2" t="s">
         <v>232</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>VLOOKUP(B2,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>VLOOKUP(C2,Sheet1!$A:$B,2,FALSE)</f>
         <v>50011</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>VLOOKUP(D2,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>VLOOKUP(E2,Sheet1!$A:$B,2,FALSE)</f>
         <v>17074</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>VLOOKUP(F2,Sheet1!$A:$B,2,FALSE)</f>
         <v>15703</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"',"</f>
         <v>'performance','learning','research','machine','mining',</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A11" si="0">B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3</f>
-        <v>performance,business,research,notes,services</v>
+        <f t="shared" ref="A3:A11" si="0">B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3</f>
+        <v>performance,business,research,notes,services,mining</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -21518,35 +21525,38 @@
       <c r="F3" t="s">
         <v>176</v>
       </c>
-      <c r="H3">
+      <c r="G3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3">
         <f>VLOOKUP(B3,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>VLOOKUP(C3,Sheet1!$A:$B,2,FALSE)</f>
         <v>10637</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f>VLOOKUP(D3,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f>VLOOKUP(E3,Sheet1!$A:$B,2,FALSE)</f>
         <v>16220</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>VLOOKUP(F3,Sheet1!$A:$B,2,FALSE)</f>
         <v>19125</v>
       </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O11" si="1">"'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"',"</f>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P11" si="1">"'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"',"</f>
         <v>'performance','business','research','notes','services',</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>performance,advanced,research,methods,complexity</v>
+        <v>performance,advanced,research,methods,complexity,mining</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -21563,35 +21573,38 @@
       <c r="F4" t="s">
         <v>160</v>
       </c>
-      <c r="H4">
+      <c r="G4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4">
         <f>VLOOKUP(B4,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>VLOOKUP(C4,Sheet1!$A:$B,2,FALSE)</f>
         <v>6623</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>VLOOKUP(D4,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f>VLOOKUP(E4,Sheet1!$A:$B,2,FALSE)</f>
         <v>20792</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f>VLOOKUP(F4,Sheet1!$A:$B,2,FALSE)</f>
         <v>20693</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f t="shared" si="1"/>
         <v>'performance','advanced','research','methods','complexity',</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>performance,platform,research,digital,graph</v>
+        <v>performance,platform,research,digital,graph,mining</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -21608,35 +21621,38 @@
       <c r="F5" t="s">
         <v>153</v>
       </c>
-      <c r="H5">
+      <c r="G5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5">
         <f>VLOOKUP(B5,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>VLOOKUP(C5,Sheet1!$A:$B,2,FALSE)</f>
         <v>5907</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>VLOOKUP(D5,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f>VLOOKUP(E5,Sheet1!$A:$B,2,FALSE)</f>
         <v>21290</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f>VLOOKUP(F5,Sheet1!$A:$B,2,FALSE)</f>
         <v>21376</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="1"/>
         <v>'performance','platform','research','digital','graph',</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>performance,middleware,research,communication,automatic</v>
+        <v>performance,middleware,research,communication,automatic,mining</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -21653,35 +21669,38 @@
       <c r="F6" t="s">
         <v>191</v>
       </c>
-      <c r="H6">
+      <c r="G6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6">
         <f>VLOOKUP(B6,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>VLOOKUP(C6,Sheet1!$A:$B,2,FALSE)</f>
         <v>4686</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>VLOOKUP(D6,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>VLOOKUP(E6,Sheet1!$A:$B,2,FALSE)</f>
         <v>22242</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f>VLOOKUP(F6,Sheet1!$A:$B,2,FALSE)</f>
         <v>17988</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="1"/>
         <v>'performance','middleware','research','communication','automatic',</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>performance,process,research,transactions,reference</v>
+        <v>performance,process,research,transactions,reference,mining</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -21698,35 +21717,38 @@
       <c r="F7" t="s">
         <v>125</v>
       </c>
-      <c r="H7">
+      <c r="G7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7">
         <f>VLOOKUP(B7,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>VLOOKUP(C7,Sheet1!$A:$B,2,FALSE)</f>
         <v>28267</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>VLOOKUP(D7,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>VLOOKUP(E7,Sheet1!$A:$B,2,FALSE)</f>
         <v>46434</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f>VLOOKUP(F7,Sheet1!$A:$B,2,FALSE)</f>
         <v>25818</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v>'performance','process','research','transactions','reference',</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>performance,representation,research,resource,interface</v>
+        <v>performance,representation,research,resource,interface,mining</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -21743,35 +21765,38 @@
       <c r="F8" t="s">
         <v>419</v>
       </c>
-      <c r="H8">
+      <c r="G8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8">
         <f>VLOOKUP(B8,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>VLOOKUP(C8,Sheet1!$A:$B,2,FALSE)</f>
         <v>10592</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>VLOOKUP(D8,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>VLOOKUP(E8,Sheet1!$A:$B,2,FALSE)</f>
         <v>10159</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>VLOOKUP(F8,Sheet1!$A:$B,2,FALSE)</f>
         <v>10009</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="1"/>
         <v>'performance','representation','research','resource','interface',</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>performance,agents,research,mathematical,reliability</v>
+        <v>performance,agents,research,mathematical,reliability,mining</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -21788,35 +21813,38 @@
       <c r="F9" t="s">
         <v>472</v>
       </c>
-      <c r="H9">
+      <c r="G9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9">
         <f>VLOOKUP(B9,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>VLOOKUP(C9,Sheet1!$A:$B,2,FALSE)</f>
         <v>10303</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>VLOOKUP(D9,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f>VLOOKUP(E9,Sheet1!$A:$B,2,FALSE)</f>
         <v>9463</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f>VLOOKUP(F9,Sheet1!$A:$B,2,FALSE)</f>
         <v>9005</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="1"/>
         <v>'performance','agents','research','mathematical','reliability',</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>performance,collaborative,research,traffic,evolution</v>
+        <v>performance,collaborative,research,traffic,evolution,mining</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -21833,35 +21861,38 @@
       <c r="F10" t="s">
         <v>504</v>
       </c>
-      <c r="H10">
+      <c r="G10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I10">
         <f>VLOOKUP(B10,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>VLOOKUP(C10,Sheet1!$A:$B,2,FALSE)</f>
         <v>9725</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>VLOOKUP(D10,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f>VLOOKUP(E10,Sheet1!$A:$B,2,FALSE)</f>
         <v>8920</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f>VLOOKUP(F10,Sheet1!$A:$B,2,FALSE)</f>
         <v>8523</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="1"/>
         <v>'performance','collaborative','research','traffic','evolution',</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>performance,functional,research,visual,fast</v>
+        <v>performance,functional,research,visual,fast,mining</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -21878,27 +21909,30 @@
       <c r="F11" t="s">
         <v>217</v>
       </c>
-      <c r="H11">
+      <c r="G11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11">
         <f>VLOOKUP(B11,Sheet1!$A:$B,2,FALSE)</f>
         <v>42425</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>VLOOKUP(C11,Sheet1!$A:$B,2,FALSE)</f>
         <v>8577</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f>VLOOKUP(D11,Sheet1!$A:$B,2,FALSE)</f>
         <v>34491</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f>VLOOKUP(E11,Sheet1!$A:$B,2,FALSE)</f>
         <v>15675</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f>VLOOKUP(F11,Sheet1!$A:$B,2,FALSE)</f>
         <v>16220</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="1"/>
         <v>'performance','functional','research','visual','fast',</v>
       </c>

--- a/trunk/yaol-p-xml/queries/dblp frequent word.xlsx
+++ b/trunk/yaol-p-xml/queries/dblp frequent word.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1672">
   <si>
     <t>conf</t>
   </si>
@@ -5029,6 +5029,9 @@
   </si>
   <si>
     <t>k6</t>
+  </si>
+  <si>
+    <t>L_k6</t>
   </si>
 </sst>
 </file>
@@ -5386,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2001"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView topLeftCell="A1086" workbookViewId="0">
+      <selection activeCell="B1120" sqref="B1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21410,7 +21413,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21418,10 +21421,8 @@
     <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21459,458 +21460,476 @@
       <c r="M1" s="2" t="s">
         <v>1669</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>1671</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2</f>
-        <v>performance,learning,research,machine,mining</v>
+        <f>B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;IF(G2="","",",")&amp;G2</f>
+        <v>multimedia,resource,interface,visual,fast,mining</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" t="s">
         <v>232</v>
       </c>
       <c r="I2">
         <f>VLOOKUP(B2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>20480</v>
       </c>
       <c r="J2">
         <f>VLOOKUP(C2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>50011</v>
+        <v>10159</v>
       </c>
       <c r="K2">
         <f>VLOOKUP(D2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>10009</v>
       </c>
       <c r="L2">
         <f>VLOOKUP(E2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>17074</v>
+        <v>15675</v>
       </c>
       <c r="M2">
         <f>VLOOKUP(F2,Sheet1!$A:$B,2,FALSE)</f>
+        <v>16220</v>
+      </c>
+      <c r="N2">
+        <f>VLOOKUP(G2,Sheet1!$A:$B,2,FALSE)</f>
         <v>15703</v>
       </c>
       <c r="P2" t="str">
         <f>"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"',"</f>
-        <v>'performance','learning','research','machine','mining',</v>
+        <v>'multimedia','resource','interface','visual','fast',</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A11" si="0">B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3</f>
-        <v>performance,business,research,notes,services,mining</v>
+        <f t="shared" ref="A3:A21" si="0">B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;IF(G3="","",",")&amp;G3</f>
+        <v>multimedia,resource,interface,middleware,</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" t="s">
-        <v>232</v>
+        <v>935</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(B3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>20480</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(C3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10637</v>
+        <v>10159</v>
       </c>
       <c r="K3">
         <f>VLOOKUP(D3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>10009</v>
       </c>
       <c r="L3">
         <f>VLOOKUP(E3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>16220</v>
-      </c>
-      <c r="M3">
+        <v>4686</v>
+      </c>
+      <c r="M3" t="e">
         <f>VLOOKUP(F3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>19125</v>
+        <v>#N/A</v>
+      </c>
+      <c r="N3" t="e">
+        <f>VLOOKUP(G3,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" ref="P3:P11" si="1">"'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"',"</f>
-        <v>'performance','business','research','notes','services',</v>
+        <v>'multimedia','resource','interface','middleware','',</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>performance,advanced,research,methods,complexity,mining</v>
+        <v>multimedia,resource,interface,user,automatic,artificial</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>673</v>
+        <v>412</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(B4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>20480</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(C4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>6623</v>
+        <v>10159</v>
       </c>
       <c r="K4">
         <f>VLOOKUP(D4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>10009</v>
       </c>
       <c r="L4">
         <f>VLOOKUP(E4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20792</v>
+        <v>19414</v>
       </c>
       <c r="M4">
         <f>VLOOKUP(F4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20693</v>
+        <v>17988</v>
+      </c>
+      <c r="N4">
+        <f>VLOOKUP(G4,Sheet1!$A:$B,2,FALSE)</f>
+        <v>13831</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="1"/>
-        <v>'performance','advanced','research','methods','complexity',</v>
+        <v>'multimedia','resource','interface','user','automatic',</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>performance,platform,research,digital,graph,mining</v>
+        <v>multimedia,resource,interface,traffic,evolution</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>791</v>
+        <v>412</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>419</v>
+      </c>
+      <c r="E5" t="s">
+        <v>477</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" t="s">
-        <v>232</v>
+        <v>504</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(B5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>20480</v>
       </c>
       <c r="J5">
         <f>VLOOKUP(C5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>5907</v>
+        <v>10159</v>
       </c>
       <c r="K5">
         <f>VLOOKUP(D5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>10009</v>
       </c>
       <c r="L5">
         <f>VLOOKUP(E5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>21290</v>
+        <v>8920</v>
       </c>
       <c r="M5">
         <f>VLOOKUP(F5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>21376</v>
+        <v>8523</v>
+      </c>
+      <c r="N5" t="e">
+        <f>VLOOKUP(G5,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="1"/>
-        <v>'performance','platform','research','digital','graph',</v>
+        <v>'multimedia','resource','interface','traffic','evolution',</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>performance,middleware,research,communication,automatic,mining</v>
+        <v>multimedia,resource,interface,digital,graph</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>935</v>
+        <v>412</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>148</v>
+        <v>419</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(B6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>20480</v>
       </c>
       <c r="J6">
         <f>VLOOKUP(C6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4686</v>
+        <v>10159</v>
       </c>
       <c r="K6">
         <f>VLOOKUP(D6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>10009</v>
       </c>
       <c r="L6">
         <f>VLOOKUP(E6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>22242</v>
+        <v>21290</v>
       </c>
       <c r="M6">
         <f>VLOOKUP(F6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>17988</v>
+        <v>21376</v>
+      </c>
+      <c r="N6" t="e">
+        <f>VLOOKUP(G6,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="1"/>
-        <v>'performance','middleware','research','communication','automatic',</v>
+        <v>'multimedia','resource','interface','digital','graph',</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>performance,process,research,transactions,reference,mining</v>
+        <v>multimedia,resource,interface,driven,notes</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>385</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(B7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>20480</v>
       </c>
       <c r="J7">
         <f>VLOOKUP(C7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>28267</v>
+        <v>10159</v>
       </c>
       <c r="K7">
         <f>VLOOKUP(D7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>10009</v>
       </c>
       <c r="L7">
         <f>VLOOKUP(E7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>46434</v>
+        <v>10491</v>
       </c>
       <c r="M7">
         <f>VLOOKUP(F7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>25818</v>
+        <v>16220</v>
+      </c>
+      <c r="N7" t="e">
+        <f>VLOOKUP(G7,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
-        <v>'performance','process','research','transactions','reference',</v>
+        <v>'multimedia','resource','interface','driven','notes',</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>performance,representation,research,resource,interface,mining</v>
+        <v>multimedia,resource,interface,methods,online</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
-      </c>
-      <c r="G8" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(B8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>20480</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(C8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10592</v>
+        <v>10159</v>
       </c>
       <c r="K8">
         <f>VLOOKUP(D8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>10009</v>
       </c>
       <c r="L8">
         <f>VLOOKUP(E8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>20792</v>
       </c>
       <c r="M8">
         <f>VLOOKUP(F8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>12892</v>
+      </c>
+      <c r="N8" t="e">
+        <f>VLOOKUP(G8,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="1"/>
-        <v>'performance','representation','research','resource','interface',</v>
+        <v>'multimedia','resource','interface','methods','online',</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>performance,agents,research,mathematical,reliability,mining</v>
+        <v>multimedia,resource,interface,agents,services,transactions</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" t="s">
         <v>397</v>
       </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>438</v>
-      </c>
       <c r="F9" t="s">
-        <v>472</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(B9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>20480</v>
       </c>
       <c r="J9">
         <f>VLOOKUP(C9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10303</v>
+        <v>10159</v>
       </c>
       <c r="K9">
         <f>VLOOKUP(D9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>10009</v>
       </c>
       <c r="L9">
         <f>VLOOKUP(E9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>9463</v>
+        <v>10303</v>
       </c>
       <c r="M9">
         <f>VLOOKUP(F9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>9005</v>
+        <v>19125</v>
+      </c>
+      <c r="N9">
+        <f>VLOOKUP(G9,Sheet1!$A:$B,2,FALSE)</f>
+        <v>46434</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="1"/>
-        <v>'performance','agents','research','mathematical','reliability',</v>
+        <v>'multimedia','resource','interface','agents','services',</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>performance,collaborative,research,traffic,evolution,mining</v>
+        <v>multimedia,resource,interface,mathematical,reliability</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="E10" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="F10" t="s">
-        <v>504</v>
-      </c>
-      <c r="G10" t="s">
-        <v>232</v>
+        <v>472</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(B10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>20480</v>
       </c>
       <c r="J10">
         <f>VLOOKUP(C10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>9725</v>
+        <v>10159</v>
       </c>
       <c r="K10">
         <f>VLOOKUP(D10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>10009</v>
       </c>
       <c r="L10">
         <f>VLOOKUP(E10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8920</v>
+        <v>9463</v>
       </c>
       <c r="M10">
         <f>VLOOKUP(F10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8523</v>
+        <v>9005</v>
+      </c>
+      <c r="N10" t="e">
+        <f>VLOOKUP(G10,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
-        <v>'performance','collaborative','research','traffic','evolution',</v>
+        <v>'multimedia','resource','interface','mathematical','reliability',</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>performance,functional,research,visual,fast,mining</v>
+        <v>performance,database,mathematical,reliability,learning</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>501</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>472</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(B11,Sheet1!$A:$B,2,FALSE)</f>
@@ -21918,26 +21937,487 @@
       </c>
       <c r="J11">
         <f>VLOOKUP(C11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8577</v>
+        <v>23517</v>
       </c>
       <c r="K11">
         <f>VLOOKUP(D11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>34491</v>
+        <v>9463</v>
       </c>
       <c r="L11">
         <f>VLOOKUP(E11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>15675</v>
+        <v>9005</v>
       </c>
       <c r="M11">
         <f>VLOOKUP(F11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>16220</v>
+        <v>50011</v>
+      </c>
+      <c r="N11" t="e">
+        <f>VLOOKUP(G11,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
-        <v>'performance','functional','research','visual','fast',</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+        <v>'performance','database','mathematical','reliability','learning',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,framework,middleware,vldb,implementation</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>935</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12">
+        <f>VLOOKUP(B12,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J12">
+        <f>VLOOKUP(C12,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K12">
+        <f>VLOOKUP(D12,Sheet1!$A:$B,2,FALSE)</f>
+        <v>25198</v>
+      </c>
+      <c r="L12">
+        <f>VLOOKUP(E12,Sheet1!$A:$B,2,FALSE)</f>
+        <v>4686</v>
+      </c>
+      <c r="M12">
+        <f>VLOOKUP(F12,Sheet1!$A:$B,2,FALSE)</f>
+        <v>24048</v>
+      </c>
+      <c r="N12">
+        <f>VLOOKUP(G12,Sheet1!$A:$B,2,FALSE)</f>
+        <v>18288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,business,dimensional,robot</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="I13">
+        <f>VLOOKUP(B13,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J13">
+        <f>VLOOKUP(C13,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K13">
+        <f>VLOOKUP(D13,Sheet1!$A:$B,2,FALSE)</f>
+        <v>10637</v>
+      </c>
+      <c r="L13">
+        <f>VLOOKUP(E13,Sheet1!$A:$B,2,FALSE)</f>
+        <v>10910</v>
+      </c>
+      <c r="M13">
+        <f>VLOOKUP(F13,Sheet1!$A:$B,2,FALSE)</f>
+        <v>17057</v>
+      </c>
+      <c r="N13" t="e">
+        <f>VLOOKUP(G13,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,statistical,index,scheduling,frequency</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>480</v>
+      </c>
+      <c r="E14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" t="s">
+        <v>546</v>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP(B14,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J14">
+        <f>VLOOKUP(C14,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K14">
+        <f>VLOOKUP(D14,Sheet1!$A:$B,2,FALSE)</f>
+        <v>8864</v>
+      </c>
+      <c r="L14">
+        <f>VLOOKUP(E14,Sheet1!$A:$B,2,FALSE)</f>
+        <v>15115</v>
+      </c>
+      <c r="M14">
+        <f>VLOOKUP(F14,Sheet1!$A:$B,2,FALSE)</f>
+        <v>19883</v>
+      </c>
+      <c r="N14">
+        <f>VLOOKUP(G14,Sheet1!$A:$B,2,FALSE)</f>
+        <v>7974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,hierarchical,practice,decision</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP(B15,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J15">
+        <f>VLOOKUP(C15,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K15">
+        <f>VLOOKUP(D15,Sheet1!$A:$B,2,FALSE)</f>
+        <v>9455</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP(E15,Sheet1!$A:$B,2,FALSE)</f>
+        <v>8171</v>
+      </c>
+      <c r="M15">
+        <f>VLOOKUP(F15,Sheet1!$A:$B,2,FALSE)</f>
+        <v>17083</v>
+      </c>
+      <c r="N15" t="e">
+        <f>VLOOKUP(G15,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,internet,study,real</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP(B16,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J16">
+        <f>VLOOKUP(C16,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K16">
+        <f>VLOOKUP(D16,Sheet1!$A:$B,2,FALSE)</f>
+        <v>17019</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP(E16,Sheet1!$A:$B,2,FALSE)</f>
+        <v>28585</v>
+      </c>
+      <c r="M16">
+        <f>VLOOKUP(F16,Sheet1!$A:$B,2,FALSE)</f>
+        <v>26989</v>
+      </c>
+      <c r="N16" t="e">
+        <f>VLOOKUP(G16,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,multimedia,problem,energy</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>388</v>
+      </c>
+      <c r="I17">
+        <f>VLOOKUP(B17,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J17">
+        <f>VLOOKUP(C17,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K17">
+        <f>VLOOKUP(D17,Sheet1!$A:$B,2,FALSE)</f>
+        <v>20480</v>
+      </c>
+      <c r="L17">
+        <f>VLOOKUP(E17,Sheet1!$A:$B,2,FALSE)</f>
+        <v>25620</v>
+      </c>
+      <c r="M17">
+        <f>VLOOKUP(F17,Sheet1!$A:$B,2,FALSE)</f>
+        <v>10465</v>
+      </c>
+      <c r="N17" t="e">
+        <f>VLOOKUP(G17,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,extraction,tracking,segmentation</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18">
+        <f>VLOOKUP(B18,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J18">
+        <f>VLOOKUP(C18,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K18">
+        <f>VLOOKUP(D18,Sheet1!$A:$B,2,FALSE)</f>
+        <v>9970</v>
+      </c>
+      <c r="L18">
+        <f>VLOOKUP(E18,Sheet1!$A:$B,2,FALSE)</f>
+        <v>11207</v>
+      </c>
+      <c r="M18">
+        <f>VLOOKUP(F18,Sheet1!$A:$B,2,FALSE)</f>
+        <v>12087</v>
+      </c>
+      <c r="N18" t="e">
+        <f>VLOOKUP(G18,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,visualization,date,quality</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19">
+        <f>VLOOKUP(B19,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J19">
+        <f>VLOOKUP(C19,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K19">
+        <f>VLOOKUP(D19,Sheet1!$A:$B,2,FALSE)</f>
+        <v>12651</v>
+      </c>
+      <c r="L19">
+        <f>VLOOKUP(E19,Sheet1!$A:$B,2,FALSE)</f>
+        <v>13414</v>
+      </c>
+      <c r="M19">
+        <f>VLOOKUP(F19,Sheet1!$A:$B,2,FALSE)</f>
+        <v>13842</v>
+      </c>
+      <c r="N19" t="e">
+        <f>VLOOKUP(G19,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,intelligence,cikm,code</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" t="s">
+        <v>539</v>
+      </c>
+      <c r="F20" t="s">
+        <v>540</v>
+      </c>
+      <c r="I20">
+        <f>VLOOKUP(B20,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J20">
+        <f>VLOOKUP(C20,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K20">
+        <f>VLOOKUP(D20,Sheet1!$A:$B,2,FALSE)</f>
+        <v>15334</v>
+      </c>
+      <c r="L20">
+        <f>VLOOKUP(E20,Sheet1!$A:$B,2,FALSE)</f>
+        <v>8076</v>
+      </c>
+      <c r="M20">
+        <f>VLOOKUP(F20,Sheet1!$A:$B,2,FALSE)</f>
+        <v>8073</v>
+      </c>
+      <c r="N20" t="e">
+        <f>VLOOKUP(G20,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>performance,database,cikm,code,article</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E21" t="s">
+        <v>540</v>
+      </c>
+      <c r="F21" t="s">
+        <v>328</v>
+      </c>
+      <c r="I21">
+        <f>VLOOKUP(B21,Sheet1!$A:$B,2,FALSE)</f>
+        <v>42425</v>
+      </c>
+      <c r="J21">
+        <f>VLOOKUP(C21,Sheet1!$A:$B,2,FALSE)</f>
+        <v>23517</v>
+      </c>
+      <c r="K21">
+        <f>VLOOKUP(D21,Sheet1!$A:$B,2,FALSE)</f>
+        <v>8076</v>
+      </c>
+      <c r="L21">
+        <f>VLOOKUP(E21,Sheet1!$A:$B,2,FALSE)</f>
+        <v>8073</v>
+      </c>
+      <c r="M21">
+        <f>VLOOKUP(F21,Sheet1!$A:$B,2,FALSE)</f>
+        <v>11939</v>
+      </c>
+      <c r="N21" t="e">
+        <f>VLOOKUP(G21,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
   </sheetData>

--- a/trunk/yaol-p-xml/queries/dblp frequent word.xlsx
+++ b/trunk/yaol-p-xml/queries/dblp frequent word.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1672">
   <si>
     <t>conf</t>
   </si>
@@ -5389,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2001"/>
   <sheetViews>
-    <sheetView topLeftCell="A1086" workbookViewId="0">
-      <selection activeCell="B1120" sqref="B1120"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21410,10 +21410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21467,22 +21467,22 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;IF(G2="","",",")&amp;G2</f>
-        <v>multimedia,resource,interface,visual,fast,mining</v>
+        <v>multimedia,performance,middleware,code,evolution,mining</v>
       </c>
       <c r="B2" t="s">
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>419</v>
+        <v>935</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>540</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>504</v>
       </c>
       <c r="G2" t="s">
         <v>232</v>
@@ -21493,19 +21493,19 @@
       </c>
       <c r="J2">
         <f>VLOOKUP(C2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>42425</v>
       </c>
       <c r="K2">
         <f>VLOOKUP(D2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>4686</v>
       </c>
       <c r="L2">
         <f>VLOOKUP(E2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>15675</v>
+        <v>8073</v>
       </c>
       <c r="M2">
         <f>VLOOKUP(F2,Sheet1!$A:$B,2,FALSE)</f>
-        <v>16220</v>
+        <v>8523</v>
       </c>
       <c r="N2">
         <f>VLOOKUP(G2,Sheet1!$A:$B,2,FALSE)</f>
@@ -21513,142 +21513,145 @@
       </c>
       <c r="P2" t="str">
         <f>"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"',"</f>
-        <v>'multimedia','resource','interface','visual','fast',</v>
+        <v>'multimedia','performance','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A21" si="0">B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;IF(G3="","",",")&amp;G3</f>
-        <v>multimedia,resource,interface,middleware,</v>
+        <f t="shared" ref="A3:A51" si="0">B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;IF(G3="","",",")&amp;G3</f>
+        <v>date,quality,middleware,code,evolution,agents</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>935</v>
       </c>
       <c r="E3" t="s">
-        <v>935</v>
+        <v>540</v>
+      </c>
+      <c r="F3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G3" t="s">
+        <v>397</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(B3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20480</v>
+        <v>13414</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(C3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>13842</v>
       </c>
       <c r="K3">
         <f>VLOOKUP(D3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>4686</v>
       </c>
       <c r="L3">
         <f>VLOOKUP(E3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4686</v>
-      </c>
-      <c r="M3" t="e">
+        <v>8073</v>
+      </c>
+      <c r="M3">
         <f>VLOOKUP(F3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N3" t="e">
+        <v>8523</v>
+      </c>
+      <c r="N3">
         <f>VLOOKUP(G3,Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>10303</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" ref="P3:P11" si="1">"'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"',"</f>
-        <v>'multimedia','resource','interface','middleware','',</v>
+        <v>'date','quality','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>multimedia,resource,interface,user,automatic,artificial</v>
+        <v>online,database,middleware,code,evolution</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>412</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>935</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>540</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" t="s">
-        <v>276</v>
+        <v>504</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(B4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20480</v>
+        <v>12892</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(C4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>23517</v>
       </c>
       <c r="K4">
         <f>VLOOKUP(D4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>4686</v>
       </c>
       <c r="L4">
         <f>VLOOKUP(E4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>19414</v>
+        <v>8073</v>
       </c>
       <c r="M4">
         <f>VLOOKUP(F4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>17988</v>
-      </c>
-      <c r="N4">
+        <v>8523</v>
+      </c>
+      <c r="N4" t="e">
         <f>VLOOKUP(G4,Sheet1!$A:$B,2,FALSE)</f>
-        <v>13831</v>
+        <v>#N/A</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="1"/>
-        <v>'multimedia','resource','interface','user','automatic',</v>
+        <v>'online','database','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>multimedia,resource,interface,traffic,evolution</v>
+        <v>communication,dimensional,middleware,code,evolution</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>935</v>
       </c>
       <c r="E5" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="F5" t="s">
         <v>504</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(B5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20480</v>
+        <v>22242</v>
       </c>
       <c r="J5">
         <f>VLOOKUP(C5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>10910</v>
       </c>
       <c r="K5">
         <f>VLOOKUP(D5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>4686</v>
       </c>
       <c r="L5">
         <f>VLOOKUP(E5,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8920</v>
+        <v>8073</v>
       </c>
       <c r="M5">
         <f>VLOOKUP(F5,Sheet1!$A:$B,2,FALSE)</f>
@@ -21660,48 +21663,48 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="1"/>
-        <v>'multimedia','resource','interface','traffic','evolution',</v>
+        <v>'communication','dimensional','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>multimedia,resource,interface,digital,graph</v>
+        <v>machine,estimation,middleware,code,evolution</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>935</v>
+      </c>
+      <c r="E6" t="s">
+        <v>540</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>504</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(B6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20480</v>
+        <v>17074</v>
       </c>
       <c r="J6">
         <f>VLOOKUP(C6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>21175</v>
       </c>
       <c r="K6">
         <f>VLOOKUP(D6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>4686</v>
       </c>
       <c r="L6">
         <f>VLOOKUP(E6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>21290</v>
+        <v>8073</v>
       </c>
       <c r="M6">
         <f>VLOOKUP(F6,Sheet1!$A:$B,2,FALSE)</f>
-        <v>21376</v>
+        <v>8523</v>
       </c>
       <c r="N6" t="e">
         <f>VLOOKUP(G6,Sheet1!$A:$B,2,FALSE)</f>
@@ -21709,48 +21712,48 @@
       </c>
       <c r="P6" t="str">
         <f t="shared" si="1"/>
-        <v>'multimedia','resource','interface','digital','graph',</v>
+        <v>'machine','estimation','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>multimedia,resource,interface,driven,notes</v>
+        <v>transactions,reference,middleware,code,evolution</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>935</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>540</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>504</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(B7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20480</v>
+        <v>46434</v>
       </c>
       <c r="J7">
         <f>VLOOKUP(C7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>25818</v>
       </c>
       <c r="K7">
         <f>VLOOKUP(D7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>4686</v>
       </c>
       <c r="L7">
         <f>VLOOKUP(E7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10491</v>
+        <v>8073</v>
       </c>
       <c r="M7">
         <f>VLOOKUP(F7,Sheet1!$A:$B,2,FALSE)</f>
-        <v>16220</v>
+        <v>8523</v>
       </c>
       <c r="N7" t="e">
         <f>VLOOKUP(G7,Sheet1!$A:$B,2,FALSE)</f>
@@ -21758,48 +21761,48 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
-        <v>'multimedia','resource','interface','driven','notes',</v>
+        <v>'transactions','reference','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>multimedia,resource,interface,methods,online</v>
+        <v>notes,services,middleware,code,evolution</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>412</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>419</v>
+        <v>935</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>540</v>
       </c>
       <c r="F8" t="s">
-        <v>299</v>
+        <v>504</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(B8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20480</v>
+        <v>16220</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(C8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>19125</v>
       </c>
       <c r="K8">
         <f>VLOOKUP(D8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>4686</v>
       </c>
       <c r="L8">
         <f>VLOOKUP(E8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20792</v>
+        <v>8073</v>
       </c>
       <c r="M8">
         <f>VLOOKUP(F8,Sheet1!$A:$B,2,FALSE)</f>
-        <v>12892</v>
+        <v>8523</v>
       </c>
       <c r="N8" t="e">
         <f>VLOOKUP(G8,Sheet1!$A:$B,2,FALSE)</f>
@@ -21807,100 +21810,97 @@
       </c>
       <c r="P8" t="str">
         <f t="shared" si="1"/>
-        <v>'multimedia','resource','interface','methods','online',</v>
+        <v>'notes','services','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>multimedia,resource,interface,agents,services,transactions</v>
+        <v>transactions,learning,middleware,code,evolution</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>419</v>
+        <v>935</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>540</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
+        <v>504</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(B9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20480</v>
+        <v>46434</v>
       </c>
       <c r="J9">
         <f>VLOOKUP(C9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>50011</v>
       </c>
       <c r="K9">
         <f>VLOOKUP(D9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>4686</v>
       </c>
       <c r="L9">
         <f>VLOOKUP(E9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10303</v>
+        <v>8073</v>
       </c>
       <c r="M9">
         <f>VLOOKUP(F9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>19125</v>
-      </c>
-      <c r="N9">
+        <v>8523</v>
+      </c>
+      <c r="N9" t="e">
         <f>VLOOKUP(G9,Sheet1!$A:$B,2,FALSE)</f>
-        <v>46434</v>
+        <v>#N/A</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="1"/>
-        <v>'multimedia','resource','interface','agents','services',</v>
+        <v>'transactions','learning','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>multimedia,resource,interface,mathematical,reliability</v>
+        <v>implementation,automatic,middleware,code,evolution</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>412</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>419</v>
+        <v>935</v>
       </c>
       <c r="E10" t="s">
-        <v>438</v>
+        <v>540</v>
       </c>
       <c r="F10" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(B10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20480</v>
+        <v>18288</v>
       </c>
       <c r="J10">
         <f>VLOOKUP(C10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10159</v>
+        <v>17988</v>
       </c>
       <c r="K10">
         <f>VLOOKUP(D10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10009</v>
+        <v>4686</v>
       </c>
       <c r="L10">
         <f>VLOOKUP(E10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>9463</v>
+        <v>8073</v>
       </c>
       <c r="M10">
         <f>VLOOKUP(F10,Sheet1!$A:$B,2,FALSE)</f>
-        <v>9005</v>
+        <v>8523</v>
       </c>
       <c r="N10" t="e">
         <f>VLOOKUP(G10,Sheet1!$A:$B,2,FALSE)</f>
@@ -21908,48 +21908,48 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
-        <v>'multimedia','resource','interface','mathematical','reliability',</v>
+        <v>'implementation','automatic','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,mathematical,reliability,learning</v>
+        <v>icc,hybrid,middleware,code,evolution</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>438</v>
+        <v>935</v>
       </c>
       <c r="E11" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>504</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(B11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
+        <v>19557</v>
       </c>
       <c r="J11">
         <f>VLOOKUP(C11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
+        <v>15980</v>
       </c>
       <c r="K11">
         <f>VLOOKUP(D11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>9463</v>
+        <v>4686</v>
       </c>
       <c r="L11">
         <f>VLOOKUP(E11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>9005</v>
+        <v>8073</v>
       </c>
       <c r="M11">
         <f>VLOOKUP(F11,Sheet1!$A:$B,2,FALSE)</f>
-        <v>50011</v>
+        <v>8523</v>
       </c>
       <c r="N11" t="e">
         <f>VLOOKUP(G11,Sheet1!$A:$B,2,FALSE)</f>
@@ -21957,97 +21957,64 @@
       </c>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
-        <v>'performance','database','mathematical','reliability','learning',</v>
+        <v>'icc','hybrid','middleware','code','evolution',</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,framework,middleware,vldb,implementation</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>935</v>
-      </c>
-      <c r="F12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" t="s">
-        <v>185</v>
-      </c>
-      <c r="I12">
+        <v>,,,,</v>
+      </c>
+      <c r="I12" t="e">
         <f>VLOOKUP(B12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J12">
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="e">
         <f>VLOOKUP(C12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K12">
+        <v>#N/A</v>
+      </c>
+      <c r="K12" t="e">
         <f>VLOOKUP(D12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>25198</v>
-      </c>
-      <c r="L12">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="e">
         <f>VLOOKUP(E12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>4686</v>
-      </c>
-      <c r="M12">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="e">
         <f>VLOOKUP(F12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>24048</v>
-      </c>
-      <c r="N12">
+        <v>#N/A</v>
+      </c>
+      <c r="N12" t="e">
         <f>VLOOKUP(G12,Sheet1!$A:$B,2,FALSE)</f>
-        <v>18288</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,business,dimensional,robot</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" t="s">
-        <v>369</v>
-      </c>
-      <c r="F13" t="s">
-        <v>201</v>
+        <v>,,,,</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="I13">
+      <c r="I13" t="e">
         <f>VLOOKUP(B13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J13">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="e">
         <f>VLOOKUP(C13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K13">
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="e">
         <f>VLOOKUP(D13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10637</v>
-      </c>
-      <c r="L13">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="e">
         <f>VLOOKUP(E13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10910</v>
-      </c>
-      <c r="M13">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="e">
         <f>VLOOKUP(F13,Sheet1!$A:$B,2,FALSE)</f>
-        <v>17057</v>
+        <v>#N/A</v>
       </c>
       <c r="N13" t="e">
         <f>VLOOKUP(G13,Sheet1!$A:$B,2,FALSE)</f>
@@ -22057,90 +22024,58 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,statistical,index,scheduling,frequency</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" t="s">
-        <v>480</v>
-      </c>
-      <c r="E14" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" t="s">
-        <v>546</v>
-      </c>
-      <c r="I14">
+        <v>,,,,</v>
+      </c>
+      <c r="I14" t="e">
         <f>VLOOKUP(B14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J14">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" t="e">
         <f>VLOOKUP(C14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K14">
+        <v>#N/A</v>
+      </c>
+      <c r="K14" t="e">
         <f>VLOOKUP(D14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8864</v>
-      </c>
-      <c r="L14">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="e">
         <f>VLOOKUP(E14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>15115</v>
-      </c>
-      <c r="M14">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="e">
         <f>VLOOKUP(F14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>19883</v>
-      </c>
-      <c r="N14">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" t="e">
         <f>VLOOKUP(G14,Sheet1!$A:$B,2,FALSE)</f>
-        <v>7974</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,hierarchical,practice,decision</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" t="s">
-        <v>439</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F15" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15">
+        <v>,,,,</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="I15" t="e">
         <f>VLOOKUP(B15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J15">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="e">
         <f>VLOOKUP(C15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K15">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" t="e">
         <f>VLOOKUP(D15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>9455</v>
-      </c>
-      <c r="L15">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="e">
         <f>VLOOKUP(E15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8171</v>
-      </c>
-      <c r="M15">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" t="e">
         <f>VLOOKUP(F15,Sheet1!$A:$B,2,FALSE)</f>
-        <v>17083</v>
+        <v>#N/A</v>
       </c>
       <c r="N15" t="e">
         <f>VLOOKUP(G15,Sheet1!$A:$B,2,FALSE)</f>
@@ -22150,42 +22085,27 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,internet,study,real</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16">
+        <v>,,,,</v>
+      </c>
+      <c r="I16" t="e">
         <f>VLOOKUP(B16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J16">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="e">
         <f>VLOOKUP(C16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K16">
+        <v>#N/A</v>
+      </c>
+      <c r="K16" t="e">
         <f>VLOOKUP(D16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>17019</v>
-      </c>
-      <c r="L16">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
         <f>VLOOKUP(E16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>28585</v>
-      </c>
-      <c r="M16">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="e">
         <f>VLOOKUP(F16,Sheet1!$A:$B,2,FALSE)</f>
-        <v>26989</v>
+        <v>#N/A</v>
       </c>
       <c r="N16" t="e">
         <f>VLOOKUP(G16,Sheet1!$A:$B,2,FALSE)</f>
@@ -22195,42 +22115,27 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,multimedia,problem,energy</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" t="s">
-        <v>388</v>
-      </c>
-      <c r="I17">
+        <v>,,,,</v>
+      </c>
+      <c r="I17" t="e">
         <f>VLOOKUP(B17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J17">
+        <v>#N/A</v>
+      </c>
+      <c r="J17" t="e">
         <f>VLOOKUP(C17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K17">
+        <v>#N/A</v>
+      </c>
+      <c r="K17" t="e">
         <f>VLOOKUP(D17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>20480</v>
-      </c>
-      <c r="L17">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" t="e">
         <f>VLOOKUP(E17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>25620</v>
-      </c>
-      <c r="M17">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" t="e">
         <f>VLOOKUP(F17,Sheet1!$A:$B,2,FALSE)</f>
-        <v>10465</v>
+        <v>#N/A</v>
       </c>
       <c r="N17" t="e">
         <f>VLOOKUP(G17,Sheet1!$A:$B,2,FALSE)</f>
@@ -22240,42 +22145,27 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,extraction,tracking,segmentation</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" t="s">
-        <v>422</v>
-      </c>
-      <c r="E18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F18" t="s">
-        <v>324</v>
-      </c>
-      <c r="I18">
+        <v>,,,,</v>
+      </c>
+      <c r="I18" t="e">
         <f>VLOOKUP(B18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J18">
+        <v>#N/A</v>
+      </c>
+      <c r="J18" t="e">
         <f>VLOOKUP(C18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K18">
+        <v>#N/A</v>
+      </c>
+      <c r="K18" t="e">
         <f>VLOOKUP(D18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>9970</v>
-      </c>
-      <c r="L18">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
         <f>VLOOKUP(E18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>11207</v>
-      </c>
-      <c r="M18">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="e">
         <f>VLOOKUP(F18,Sheet1!$A:$B,2,FALSE)</f>
-        <v>12087</v>
+        <v>#N/A</v>
       </c>
       <c r="N18" t="e">
         <f>VLOOKUP(G18,Sheet1!$A:$B,2,FALSE)</f>
@@ -22285,42 +22175,27 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,visualization,date,quality</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="I19">
+        <v>,,,,</v>
+      </c>
+      <c r="I19" t="e">
         <f>VLOOKUP(B19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J19">
+        <v>#N/A</v>
+      </c>
+      <c r="J19" t="e">
         <f>VLOOKUP(C19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K19">
+        <v>#N/A</v>
+      </c>
+      <c r="K19" t="e">
         <f>VLOOKUP(D19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>12651</v>
-      </c>
-      <c r="L19">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="e">
         <f>VLOOKUP(E19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>13414</v>
-      </c>
-      <c r="M19">
+        <v>#N/A</v>
+      </c>
+      <c r="M19" t="e">
         <f>VLOOKUP(F19,Sheet1!$A:$B,2,FALSE)</f>
-        <v>13842</v>
+        <v>#N/A</v>
       </c>
       <c r="N19" t="e">
         <f>VLOOKUP(G19,Sheet1!$A:$B,2,FALSE)</f>
@@ -22330,42 +22205,27 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,intelligence,cikm,code</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" t="s">
-        <v>539</v>
-      </c>
-      <c r="F20" t="s">
-        <v>540</v>
-      </c>
-      <c r="I20">
+        <v>,,,,</v>
+      </c>
+      <c r="I20" t="e">
         <f>VLOOKUP(B20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J20">
+        <v>#N/A</v>
+      </c>
+      <c r="J20" t="e">
         <f>VLOOKUP(C20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K20">
+        <v>#N/A</v>
+      </c>
+      <c r="K20" t="e">
         <f>VLOOKUP(D20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>15334</v>
-      </c>
-      <c r="L20">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="e">
         <f>VLOOKUP(E20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8076</v>
-      </c>
-      <c r="M20">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" t="e">
         <f>VLOOKUP(F20,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8073</v>
+        <v>#N/A</v>
       </c>
       <c r="N20" t="e">
         <f>VLOOKUP(G20,Sheet1!$A:$B,2,FALSE)</f>
@@ -22375,50 +22235,958 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>performance,database,cikm,code,article</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>539</v>
-      </c>
-      <c r="E21" t="s">
-        <v>540</v>
-      </c>
-      <c r="F21" t="s">
-        <v>328</v>
-      </c>
-      <c r="I21">
+        <v>,,,,</v>
+      </c>
+      <c r="I21" t="e">
         <f>VLOOKUP(B21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>42425</v>
-      </c>
-      <c r="J21">
+        <v>#N/A</v>
+      </c>
+      <c r="J21" t="e">
         <f>VLOOKUP(C21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>23517</v>
-      </c>
-      <c r="K21">
+        <v>#N/A</v>
+      </c>
+      <c r="K21" t="e">
         <f>VLOOKUP(D21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8076</v>
-      </c>
-      <c r="L21">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="e">
         <f>VLOOKUP(E21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>8073</v>
-      </c>
-      <c r="M21">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="e">
         <f>VLOOKUP(F21,Sheet1!$A:$B,2,FALSE)</f>
-        <v>11939</v>
+        <v>#N/A</v>
       </c>
       <c r="N21" t="e">
         <f>VLOOKUP(G21,Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I22" t="e">
+        <f>VLOOKUP(B22,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" t="e">
+        <f>VLOOKUP(C22,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" t="e">
+        <f>VLOOKUP(D22,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="e">
+        <f>VLOOKUP(E22,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" t="e">
+        <f>VLOOKUP(F22,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" t="e">
+        <f>VLOOKUP(G22,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I23" t="e">
+        <f>VLOOKUP(B23,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J23" t="e">
+        <f>VLOOKUP(C23,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K23" t="e">
+        <f>VLOOKUP(D23,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="e">
+        <f>VLOOKUP(E23,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M23" t="e">
+        <f>VLOOKUP(F23,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N23" t="e">
+        <f>VLOOKUP(G23,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I24" t="e">
+        <f>VLOOKUP(B24,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J24" t="e">
+        <f>VLOOKUP(C24,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K24" t="e">
+        <f>VLOOKUP(D24,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="e">
+        <f>VLOOKUP(E24,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M24" t="e">
+        <f>VLOOKUP(F24,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N24" t="e">
+        <f>VLOOKUP(G24,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I25" t="e">
+        <f>VLOOKUP(B25,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <f>VLOOKUP(C25,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K25" t="e">
+        <f>VLOOKUP(D25,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="e">
+        <f>VLOOKUP(E25,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M25" t="e">
+        <f>VLOOKUP(F25,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N25" t="e">
+        <f>VLOOKUP(G25,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I26" t="e">
+        <f>VLOOKUP(B26,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="e">
+        <f>VLOOKUP(C26,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <f>VLOOKUP(D26,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="e">
+        <f>VLOOKUP(E26,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M26" t="e">
+        <f>VLOOKUP(F26,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N26" t="e">
+        <f>VLOOKUP(G26,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I27" t="e">
+        <f>VLOOKUP(B27,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="e">
+        <f>VLOOKUP(C27,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K27" t="e">
+        <f>VLOOKUP(D27,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="e">
+        <f>VLOOKUP(E27,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M27" t="e">
+        <f>VLOOKUP(F27,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N27" t="e">
+        <f>VLOOKUP(G27,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I28" t="e">
+        <f>VLOOKUP(B28,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" t="e">
+        <f>VLOOKUP(C28,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K28" t="e">
+        <f>VLOOKUP(D28,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" t="e">
+        <f>VLOOKUP(E28,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M28" t="e">
+        <f>VLOOKUP(F28,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N28" t="e">
+        <f>VLOOKUP(G28,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I29" t="e">
+        <f>VLOOKUP(B29,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J29" t="e">
+        <f>VLOOKUP(C29,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K29" t="e">
+        <f>VLOOKUP(D29,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="e">
+        <f>VLOOKUP(E29,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M29" t="e">
+        <f>VLOOKUP(F29,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N29" t="e">
+        <f>VLOOKUP(G29,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I30" t="e">
+        <f>VLOOKUP(B30,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="e">
+        <f>VLOOKUP(C30,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K30" t="e">
+        <f>VLOOKUP(D30,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L30" t="e">
+        <f>VLOOKUP(E30,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M30" t="e">
+        <f>VLOOKUP(F30,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N30" t="e">
+        <f>VLOOKUP(G30,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I31" t="e">
+        <f>VLOOKUP(B31,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" t="e">
+        <f>VLOOKUP(C31,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K31" t="e">
+        <f>VLOOKUP(D31,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="e">
+        <f>VLOOKUP(E31,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M31" t="e">
+        <f>VLOOKUP(F31,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N31" t="e">
+        <f>VLOOKUP(G31,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="I32" t="e">
+        <f>VLOOKUP(B32,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="e">
+        <f>VLOOKUP(C32,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K32" t="e">
+        <f>VLOOKUP(D32,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L32" t="e">
+        <f>VLOOKUP(E32,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M32" t="e">
+        <f>VLOOKUP(F32,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N32" t="e">
+        <f>VLOOKUP(G32,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" t="e">
+        <f>VLOOKUP(B33,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="e">
+        <f>VLOOKUP(C33,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K33" t="e">
+        <f>VLOOKUP(D33,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L33" t="e">
+        <f>VLOOKUP(E33,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M33" t="e">
+        <f>VLOOKUP(F33,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N33" t="e">
+        <f>VLOOKUP(G33,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="I34" t="e">
+        <f>VLOOKUP(B34,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="e">
+        <f>VLOOKUP(C34,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K34" t="e">
+        <f>VLOOKUP(D34,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" t="e">
+        <f>VLOOKUP(E34,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M34" t="e">
+        <f>VLOOKUP(F34,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N34" t="e">
+        <f>VLOOKUP(G34,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="I35" t="e">
+        <f>VLOOKUP(B35,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" t="e">
+        <f>VLOOKUP(C35,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K35" t="e">
+        <f>VLOOKUP(D35,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L35" t="e">
+        <f>VLOOKUP(E35,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M35" t="e">
+        <f>VLOOKUP(F35,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N35" t="e">
+        <f>VLOOKUP(G35,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="I36" t="e">
+        <f>VLOOKUP(B36,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" t="e">
+        <f>VLOOKUP(C36,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" t="e">
+        <f>VLOOKUP(D36,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="e">
+        <f>VLOOKUP(E36,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M36" t="e">
+        <f>VLOOKUP(F36,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N36" t="e">
+        <f>VLOOKUP(G36,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="I37" t="e">
+        <f>VLOOKUP(B37,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J37" t="e">
+        <f>VLOOKUP(C37,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K37" t="e">
+        <f>VLOOKUP(D37,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L37" t="e">
+        <f>VLOOKUP(E37,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M37" t="e">
+        <f>VLOOKUP(F37,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N37" t="e">
+        <f>VLOOKUP(G37,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="I38" t="e">
+        <f>VLOOKUP(B38,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J38" t="e">
+        <f>VLOOKUP(C38,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K38" t="e">
+        <f>VLOOKUP(D38,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L38" t="e">
+        <f>VLOOKUP(E38,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M38" t="e">
+        <f>VLOOKUP(F38,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N38" t="e">
+        <f>VLOOKUP(G38,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="I39" t="e">
+        <f>VLOOKUP(B39,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J39" t="e">
+        <f>VLOOKUP(C39,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K39" t="e">
+        <f>VLOOKUP(D39,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="e">
+        <f>VLOOKUP(E39,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M39" t="e">
+        <f>VLOOKUP(F39,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N39" t="e">
+        <f>VLOOKUP(G39,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="I40" t="e">
+        <f>VLOOKUP(B40,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J40" t="e">
+        <f>VLOOKUP(C40,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K40" t="e">
+        <f>VLOOKUP(D40,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L40" t="e">
+        <f>VLOOKUP(E40,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M40" t="e">
+        <f>VLOOKUP(F40,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N40" t="e">
+        <f>VLOOKUP(G40,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="I41" t="e">
+        <f>VLOOKUP(B41,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J41" t="e">
+        <f>VLOOKUP(C41,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K41" t="e">
+        <f>VLOOKUP(D41,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L41" t="e">
+        <f>VLOOKUP(E41,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M41" t="e">
+        <f>VLOOKUP(F41,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N41" t="e">
+        <f>VLOOKUP(G41,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="I42" t="e">
+        <f>VLOOKUP(B42,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J42" t="e">
+        <f>VLOOKUP(C42,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K42" t="e">
+        <f>VLOOKUP(D42,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L42" t="e">
+        <f>VLOOKUP(E42,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M42" t="e">
+        <f>VLOOKUP(F42,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N42" t="e">
+        <f>VLOOKUP(G42,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="I43" t="e">
+        <f>VLOOKUP(B43,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J43" t="e">
+        <f>VLOOKUP(C43,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K43" t="e">
+        <f>VLOOKUP(D43,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L43" t="e">
+        <f>VLOOKUP(E43,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M43" t="e">
+        <f>VLOOKUP(F43,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N43" t="e">
+        <f>VLOOKUP(G43,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="I44" t="e">
+        <f>VLOOKUP(B44,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J44" t="e">
+        <f>VLOOKUP(C44,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K44" t="e">
+        <f>VLOOKUP(D44,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L44" t="e">
+        <f>VLOOKUP(E44,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M44" t="e">
+        <f>VLOOKUP(F44,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N44" t="e">
+        <f>VLOOKUP(G44,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="I45" t="e">
+        <f>VLOOKUP(B45,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J45" t="e">
+        <f>VLOOKUP(C45,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K45" t="e">
+        <f>VLOOKUP(D45,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="e">
+        <f>VLOOKUP(E45,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M45" t="e">
+        <f>VLOOKUP(F45,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N45" t="e">
+        <f>VLOOKUP(G45,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="I46" t="e">
+        <f>VLOOKUP(B46,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J46" t="e">
+        <f>VLOOKUP(C46,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K46" t="e">
+        <f>VLOOKUP(D46,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L46" t="e">
+        <f>VLOOKUP(E46,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M46" t="e">
+        <f>VLOOKUP(F46,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N46" t="e">
+        <f>VLOOKUP(G46,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="I47" t="e">
+        <f>VLOOKUP(B47,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J47" t="e">
+        <f>VLOOKUP(C47,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K47" t="e">
+        <f>VLOOKUP(D47,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L47" t="e">
+        <f>VLOOKUP(E47,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M47" t="e">
+        <f>VLOOKUP(F47,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N47" t="e">
+        <f>VLOOKUP(G47,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="I48" t="e">
+        <f>VLOOKUP(B48,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J48" t="e">
+        <f>VLOOKUP(C48,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K48" t="e">
+        <f>VLOOKUP(D48,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L48" t="e">
+        <f>VLOOKUP(E48,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M48" t="e">
+        <f>VLOOKUP(F48,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N48" t="e">
+        <f>VLOOKUP(G48,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="I49" t="e">
+        <f>VLOOKUP(B49,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J49" t="e">
+        <f>VLOOKUP(C49,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K49" t="e">
+        <f>VLOOKUP(D49,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L49" t="e">
+        <f>VLOOKUP(E49,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M49" t="e">
+        <f>VLOOKUP(F49,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N49" t="e">
+        <f>VLOOKUP(G49,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="I50" t="e">
+        <f>VLOOKUP(B50,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J50" t="e">
+        <f>VLOOKUP(C50,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K50" t="e">
+        <f>VLOOKUP(D50,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L50" t="e">
+        <f>VLOOKUP(E50,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M50" t="e">
+        <f>VLOOKUP(F50,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N50" t="e">
+        <f>VLOOKUP(G50,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="I51" t="e">
+        <f>VLOOKUP(B51,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J51" t="e">
+        <f>VLOOKUP(C51,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K51" t="e">
+        <f>VLOOKUP(D51,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L51" t="e">
+        <f>VLOOKUP(E51,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M51" t="e">
+        <f>VLOOKUP(F51,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N51" t="e">
+        <f>VLOOKUP(G51,Sheet1!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/yaol-p-xml/queries/dblp frequent word.xlsx
+++ b/trunk/yaol-p-xml/queries/dblp frequent word.xlsx
@@ -21413,7 +21413,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
